--- a/propiedades_propano.xlsx
+++ b/propiedades_propano.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,288 +500,2010 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>200</v>
+        <v>186.6734693877551</v>
       </c>
       <c r="B3">
-        <v>0.2040615868809286</v>
+        <v>0.08560469590180445</v>
       </c>
       <c r="C3">
-        <v>0.001521712875945523</v>
+        <v>0.001491348736168196</v>
       </c>
       <c r="D3">
-        <v>1.830346876949619</v>
+        <v>4.09205743232918</v>
       </c>
       <c r="E3">
-        <v>-77.30237934282678</v>
+        <v>-106.8703731924654</v>
       </c>
       <c r="F3">
-        <v>418.8374685888957</v>
+        <v>434.1501535067492</v>
       </c>
       <c r="G3">
-        <v>341.5350892460689</v>
+        <v>327.2797803142838</v>
       </c>
       <c r="H3">
-        <v>-77.27132702840254</v>
+        <v>-106.8576065469611</v>
       </c>
       <c r="I3">
-        <v>456.1567650997605</v>
+        <v>469.1673200719707</v>
       </c>
       <c r="J3">
-        <v>378.885438071358</v>
+        <v>362.3097135250097</v>
       </c>
       <c r="K3">
-        <v>-0.3761479015870195</v>
+        <v>-0.5451552664770105</v>
       </c>
       <c r="L3">
-        <v>2.280783825498803</v>
+        <v>2.513304764789173</v>
       </c>
       <c r="M3">
-        <v>1.904635923911783</v>
+        <v>1.968149498312163</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>230</v>
+        <v>190.3469387755102</v>
       </c>
       <c r="B4">
-        <v>0.9708684684794646</v>
+        <v>0.1102162535273633</v>
       </c>
       <c r="C4">
-        <v>0.001605610220221145</v>
+        <v>0.001499367036329415</v>
       </c>
       <c r="D4">
-        <v>0.4322202143216139</v>
+        <v>3.237343554066177</v>
       </c>
       <c r="E4">
-        <v>-7.399052358158087</v>
+        <v>-98.81780980323032</v>
       </c>
       <c r="F4">
-        <v>382.5250566778766</v>
+        <v>429.9773149493757</v>
       </c>
       <c r="G4">
-        <v>375.1260043197186</v>
+        <v>331.1595051461454</v>
       </c>
       <c r="H4">
-        <v>-7.243168724609973</v>
+        <v>-98.80128434148969</v>
       </c>
       <c r="I4">
-        <v>424.3320707967576</v>
+        <v>465.6415772786484</v>
       </c>
       <c r="J4">
-        <v>417.0889020721477</v>
+        <v>366.8402929371587</v>
       </c>
       <c r="K4">
-        <v>-0.03211095853085677</v>
+        <v>-0.4973930747334065</v>
       </c>
       <c r="L4">
-        <v>1.844922046942425</v>
+        <v>2.446278255243247</v>
       </c>
       <c r="M4">
-        <v>1.812811088411568</v>
+        <v>1.948885180509841</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>260</v>
+        <v>194.0204081632653</v>
       </c>
       <c r="B5">
-        <v>3.148062168651325</v>
+        <v>0.1404321391554123</v>
       </c>
       <c r="C5">
-        <v>0.001720943069091817</v>
+        <v>0.001507645993187209</v>
       </c>
       <c r="D5">
-        <v>0.1434014497440469</v>
+        <v>2.586562750102997</v>
       </c>
       <c r="E5">
-        <v>66.41212592417963</v>
+        <v>-90.69010361677238</v>
       </c>
       <c r="F5">
-        <v>343.2953837736748</v>
+        <v>425.7680573225946</v>
       </c>
       <c r="G5">
-        <v>409.7075096978544</v>
+        <v>335.0779537058222</v>
       </c>
       <c r="H5">
-        <v>66.95388950120071</v>
+        <v>-90.66893142158114</v>
       </c>
       <c r="I5">
-        <v>387.8972880835525</v>
+        <v>462.0705391330703</v>
       </c>
       <c r="J5">
-        <v>454.8511775847532</v>
+        <v>371.4016077114892</v>
       </c>
       <c r="K5">
-        <v>0.2739709158515837</v>
+        <v>-0.4505501699592855</v>
       </c>
       <c r="L5">
-        <v>1.491912646475202</v>
+        <v>2.381556370834169</v>
       </c>
       <c r="M5">
-        <v>1.765883562326786</v>
+        <v>1.931006200874884</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>290</v>
+        <v>197.6938775510204</v>
       </c>
       <c r="B6">
-        <v>7.890205626893187</v>
+        <v>0.1771881417935663</v>
       </c>
       <c r="C6">
-        <v>0.001890389786985693</v>
+        <v>0.001516198271294505</v>
       </c>
       <c r="D6">
-        <v>0.05841003787968867</v>
+        <v>2.085777886801715</v>
       </c>
       <c r="E6">
-        <v>143.4226888422817</v>
+        <v>-82.48842913870595</v>
       </c>
       <c r="F6">
-        <v>299.9647814939916</v>
+        <v>421.5220102936339</v>
       </c>
       <c r="G6">
-        <v>443.3874703362733</v>
+        <v>339.033581154928</v>
       </c>
       <c r="H6">
-        <v>144.9142452557113</v>
+        <v>-82.46156390327781</v>
       </c>
       <c r="I6">
-        <v>344.5599460350984</v>
+        <v>458.4526558538565</v>
       </c>
       <c r="J6">
-        <v>489.4741912908097</v>
+        <v>375.9910919505787</v>
       </c>
       <c r="K6">
-        <v>0.5527192618815757</v>
+        <v>-0.4045801601379031</v>
       </c>
       <c r="L6">
-        <v>1.188137744948615</v>
+        <v>2.319002801366674</v>
       </c>
       <c r="M6">
-        <v>1.740857006830191</v>
+        <v>1.914422641228771</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>320</v>
+        <v>201.3673469387755</v>
       </c>
       <c r="B7">
-        <v>16.49666720516544</v>
+        <v>0.2215148207092946</v>
       </c>
       <c r="C7">
-        <v>0.002169127903675506</v>
+        <v>0.001525037416380166</v>
       </c>
       <c r="D7">
-        <v>0.026567952454752</v>
+        <v>1.696558307375586</v>
       </c>
       <c r="E7">
-        <v>223.8854135252561</v>
+        <v>-74.21407580770318</v>
       </c>
       <c r="F7">
-        <v>249.0658501612815</v>
+        <v>417.2387910641293</v>
       </c>
       <c r="G7">
-        <v>472.9512636865376</v>
+        <v>343.0247152564261</v>
       </c>
       <c r="H7">
-        <v>227.4637516404933</v>
+        <v>-74.18029396871674</v>
       </c>
       <c r="I7">
-        <v>289.3157790429144</v>
+        <v>454.7862901532596</v>
       </c>
       <c r="J7">
-        <v>516.7795306834078</v>
+        <v>380.6059961845428</v>
       </c>
       <c r="K7">
-        <v>0.813548695733903</v>
+        <v>-0.3594402154514778</v>
       </c>
       <c r="L7">
-        <v>0.9041118095091075</v>
+        <v>2.258490748708799</v>
       </c>
       <c r="M7">
-        <v>1.717660505243011</v>
+        <v>1.899050533257321</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>350</v>
+        <v>205.0408163265306</v>
       </c>
       <c r="B8">
-        <v>30.21191351198876</v>
+        <v>0.2745389691543267</v>
       </c>
       <c r="C8">
-        <v>0.002761211475231718</v>
+        <v>0.001534177932468939</v>
       </c>
       <c r="D8">
-        <v>0.01209310375453408</v>
+        <v>1.391199036074182</v>
       </c>
       <c r="E8">
-        <v>312.2936689545276</v>
+        <v>-65.86843634972047</v>
       </c>
       <c r="F8">
-        <v>177.5631891001779</v>
+        <v>412.9179945019336</v>
       </c>
       <c r="G8">
-        <v>489.8568580547055</v>
+        <v>347.0495581522131</v>
       </c>
       <c r="H8">
-        <v>320.6358171823288</v>
+        <v>-65.82631718691255</v>
       </c>
       <c r="I8">
-        <v>205.7566213447258</v>
+        <v>451.0697102643556</v>
       </c>
       <c r="J8">
-        <v>526.3924385270545</v>
+        <v>385.243393077443</v>
       </c>
       <c r="K8">
-        <v>1.07463794831359</v>
+        <v>-0.315090724213589</v>
       </c>
       <c r="L8">
-        <v>0.5878760609849308</v>
+        <v>2.199902040704034</v>
       </c>
       <c r="M8">
-        <v>1.662514009298521</v>
+        <v>1.884811316490445</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
+        <v>208.7142857142857</v>
+      </c>
+      <c r="B9">
+        <v>0.3374843222523298</v>
+      </c>
+      <c r="C9">
+        <v>0.001543635367555609</v>
+      </c>
+      <c r="D9">
+        <v>1.149505106818572</v>
+      </c>
+      <c r="E9">
+        <v>-57.45299404155168</v>
+      </c>
+      <c r="F9">
+        <v>408.5591823270009</v>
+      </c>
+      <c r="G9">
+        <v>351.1061882854492</v>
+      </c>
+      <c r="H9">
+        <v>-57.4008987679693</v>
+      </c>
+      <c r="I9">
+        <v>447.3010822434442</v>
+      </c>
+      <c r="J9">
+        <v>389.9001834754749</v>
+      </c>
+      <c r="K9">
+        <v>-0.2714949810437171</v>
+      </c>
+      <c r="L9">
+        <v>2.143126335184196</v>
+      </c>
+      <c r="M9">
+        <v>1.871631354140479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>212.3877551020408</v>
+      </c>
+      <c r="B10">
+        <v>0.4116715129426234</v>
+      </c>
+      <c r="C10">
+        <v>0.001553426409007747</v>
+      </c>
+      <c r="D10">
+        <v>0.9566010515942673</v>
+      </c>
+      <c r="E10">
+        <v>-48.96930910014606</v>
+      </c>
+      <c r="F10">
+        <v>404.1618713747026</v>
+      </c>
+      <c r="G10">
+        <v>355.1925622745565</v>
+      </c>
+      <c r="H10">
+        <v>-48.90535896014194</v>
+      </c>
+      <c r="I10">
+        <v>443.4784614539301</v>
+      </c>
+      <c r="J10">
+        <v>394.5731024937882</v>
+      </c>
+      <c r="K10">
+        <v>-0.2286189039813491</v>
+      </c>
+      <c r="L10">
+        <v>2.088060402733023</v>
+      </c>
+      <c r="M10">
+        <v>1.859441498751674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>216.0612244897959</v>
+      </c>
+      <c r="B11">
+        <v>0.4985172916591438</v>
+      </c>
+      <c r="C11">
+        <v>0.001563568990061419</v>
+      </c>
+      <c r="D11">
+        <v>0.8014207223912617</v>
+      </c>
+      <c r="E11">
+        <v>-40.41900439347995</v>
+      </c>
+      <c r="F11">
+        <v>399.7255209405614</v>
+      </c>
+      <c r="G11">
+        <v>359.3065165470814</v>
+      </c>
+      <c r="H11">
+        <v>-40.34105777565514</v>
+      </c>
+      <c r="I11">
+        <v>439.5997831233372</v>
+      </c>
+      <c r="J11">
+        <v>399.2587253476821</v>
+      </c>
+      <c r="K11">
+        <v>-0.1864307776088454</v>
+      </c>
+      <c r="L11">
+        <v>2.034607478326582</v>
+      </c>
+      <c r="M11">
+        <v>1.848176700717737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>219.734693877551</v>
+      </c>
+      <c r="B12">
+        <v>0.5995330357854544</v>
+      </c>
+      <c r="C12">
+        <v>0.001574082408999603</v>
+      </c>
+      <c r="D12">
+        <v>0.6756542456104602</v>
+      </c>
+      <c r="E12">
+        <v>-31.80375064245879</v>
+      </c>
+      <c r="F12">
+        <v>395.2495191871261</v>
+      </c>
+      <c r="G12">
+        <v>363.4457685446673</v>
+      </c>
+      <c r="H12">
+        <v>-31.70937920193438</v>
+      </c>
+      <c r="I12">
+        <v>435.6628518478187</v>
+      </c>
+      <c r="J12">
+        <v>403.9534726458843</v>
+      </c>
+      <c r="K12">
+        <v>-0.1449010195512306</v>
+      </c>
+      <c r="L12">
+        <v>1.982676673218456</v>
+      </c>
+      <c r="M12">
+        <v>1.837775653667225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>223.4081632653061</v>
+      </c>
+      <c r="B13">
+        <v>0.7163225837849636</v>
+      </c>
+      <c r="C13">
+        <v>0.001584987462871807</v>
+      </c>
+      <c r="D13">
+        <v>0.5730057727036231</v>
+      </c>
+      <c r="E13">
+        <v>-23.12525125283162</v>
+      </c>
+      <c r="F13">
+        <v>390.7331685667549</v>
+      </c>
+      <c r="G13">
+        <v>367.6079173139233</v>
+      </c>
+      <c r="H13">
+        <v>-23.01171502136452</v>
+      </c>
+      <c r="I13">
+        <v>431.6653298979637</v>
+      </c>
+      <c r="J13">
+        <v>408.6536148765992</v>
+      </c>
+      <c r="K13">
+        <v>-0.1040019679630892</v>
+      </c>
+      <c r="L13">
+        <v>1.932182439481157</v>
+      </c>
+      <c r="M13">
+        <v>1.828180471518067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>227.0816326530612</v>
+      </c>
+      <c r="B14">
+        <v>0.8505794362406641</v>
+      </c>
+      <c r="C14">
+        <v>0.001596306597934976</v>
+      </c>
+      <c r="D14">
+        <v>0.4886649119105223</v>
+      </c>
+      <c r="E14">
+        <v>-14.38522688267523</v>
+      </c>
+      <c r="F14">
+        <v>386.1756701834544</v>
+      </c>
+      <c r="G14">
+        <v>371.7904433007792</v>
+      </c>
+      <c r="H14">
+        <v>-14.24944832606133</v>
+      </c>
+      <c r="I14">
+        <v>427.6047241551851</v>
+      </c>
+      <c r="J14">
+        <v>413.3552758291238</v>
+      </c>
+      <c r="K14">
+        <v>-0.06370768781011726</v>
+      </c>
+      <c r="L14">
+        <v>1.883044080489267</v>
+      </c>
+      <c r="M14">
+        <v>1.819336392679149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>230.7551020408163</v>
+      </c>
+      <c r="B15">
+        <v>1.004083371878702</v>
+      </c>
+      <c r="C15">
+        <v>0.001608064079382553</v>
+      </c>
+      <c r="D15">
+        <v>0.4189266420957149</v>
+      </c>
+      <c r="E15">
+        <v>-5.585399815550147</v>
+      </c>
+      <c r="F15">
+        <v>381.5761069823644</v>
+      </c>
+      <c r="G15">
+        <v>375.9907071668143</v>
+      </c>
+      <c r="H15">
+        <v>-5.423936775247796</v>
+      </c>
+      <c r="I15">
+        <v>423.4783714785908</v>
+      </c>
+      <c r="J15">
+        <v>418.054434703343</v>
+      </c>
+      <c r="K15">
+        <v>-0.02399379391460177</v>
+      </c>
+      <c r="L15">
+        <v>1.83518530135765</v>
+      </c>
+      <c r="M15">
+        <v>1.811191507443048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>234.4285714285714</v>
+      </c>
+      <c r="B16">
+        <v>1.178696531060621</v>
+      </c>
+      <c r="C16">
+        <v>0.001620286183395619</v>
+      </c>
+      <c r="D16">
+        <v>0.3609154527887805</v>
+      </c>
+      <c r="E16">
+        <v>3.272521827498849</v>
+      </c>
+      <c r="F16">
+        <v>376.9334256164223</v>
+      </c>
+      <c r="G16">
+        <v>380.2059474439212</v>
+      </c>
+      <c r="H16">
+        <v>3.463504397868235</v>
+      </c>
+      <c r="I16">
+        <v>419.2834222668838</v>
+      </c>
+      <c r="J16">
+        <v>422.746926664752</v>
+      </c>
+      <c r="K16">
+        <v>0.01516271113354084</v>
+      </c>
+      <c r="L16">
+        <v>1.788533793947707</v>
+      </c>
+      <c r="M16">
+        <v>1.803696505081247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>238.1020408163265</v>
+      </c>
+      <c r="B17">
+        <v>1.376359022303655</v>
+      </c>
+      <c r="C17">
+        <v>0.001633001415116723</v>
+      </c>
+      <c r="D17">
+        <v>0.3123833539665815</v>
+      </c>
+      <c r="E17">
+        <v>12.18686004212037</v>
+      </c>
+      <c r="F17">
+        <v>372.2464167952782</v>
+      </c>
+      <c r="G17">
+        <v>384.4332768373985</v>
+      </c>
+      <c r="H17">
+        <v>12.41161966523345</v>
+      </c>
+      <c r="I17">
+        <v>415.0168219371031</v>
+      </c>
+      <c r="J17">
+        <v>427.4284416023366</v>
+      </c>
+      <c r="K17">
+        <v>0.05378358599143329</v>
+      </c>
+      <c r="L17">
+        <v>1.743020851540075</v>
+      </c>
+      <c r="M17">
+        <v>1.796804437531508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>241.7755102040816</v>
+      </c>
+      <c r="B18">
+        <v>1.599084109240948</v>
+      </c>
+      <c r="C18">
+        <v>0.001646240756838188</v>
+      </c>
+      <c r="D18">
+        <v>0.2715607241185176</v>
+      </c>
+      <c r="E18">
+        <v>21.15598310567839</v>
+      </c>
+      <c r="F18">
+        <v>367.5136938703226</v>
+      </c>
+      <c r="G18">
+        <v>388.669676976001</v>
+      </c>
+      <c r="H18">
+        <v>21.41923084910286</v>
+      </c>
+      <c r="I18">
+        <v>410.6752899900868</v>
+      </c>
+      <c r="J18">
+        <v>432.0945208391896</v>
+      </c>
+      <c r="K18">
+        <v>0.09188948821098131</v>
+      </c>
+      <c r="L18">
+        <v>1.698581008653182</v>
+      </c>
+      <c r="M18">
+        <v>1.790470496864164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>245.4489795918367</v>
+      </c>
+      <c r="B19">
+        <v>1.848953036189801</v>
+      </c>
+      <c r="C19">
+        <v>0.001660037951543604</v>
+      </c>
+      <c r="D19">
+        <v>0.2370452860750115</v>
+      </c>
+      <c r="E19">
+        <v>30.17832203942481</v>
+      </c>
+      <c r="F19">
+        <v>362.7336693499277</v>
+      </c>
+      <c r="G19">
+        <v>392.9119913893525</v>
+      </c>
+      <c r="H19">
+        <v>30.48525526049451</v>
+      </c>
+      <c r="I19">
+        <v>406.2552962691452</v>
+      </c>
+      <c r="J19">
+        <v>436.7405515296397</v>
+      </c>
+      <c r="K19">
+        <v>0.1295001021658497</v>
+      </c>
+      <c r="L19">
+        <v>1.655151701770027</v>
+      </c>
+      <c r="M19">
+        <v>1.784651803935877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>249.1224489795918</v>
+      </c>
+      <c r="B20">
+        <v>2.128109550287959</v>
+      </c>
+      <c r="C20">
+        <v>0.001674429827985046</v>
+      </c>
+      <c r="D20">
+        <v>0.2077188271496901</v>
+      </c>
+      <c r="E20">
+        <v>39.25238749874939</v>
+      </c>
+      <c r="F20">
+        <v>357.9045289682342</v>
+      </c>
+      <c r="G20">
+        <v>397.1569164669835</v>
+      </c>
+      <c r="H20">
+        <v>39.60872450957157</v>
+      </c>
+      <c r="I20">
+        <v>401.7530339405989</v>
+      </c>
+      <c r="J20">
+        <v>441.3617584501705</v>
+      </c>
+      <c r="K20">
+        <v>0.1666342588664762</v>
+      </c>
+      <c r="L20">
+        <v>1.612672946923023</v>
+      </c>
+      <c r="M20">
+        <v>1.7793072057895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>252.7959183673469</v>
+      </c>
+      <c r="B21">
+        <v>2.438754177119823</v>
+      </c>
+      <c r="C21">
+        <v>0.001689456674771942</v>
+      </c>
+      <c r="D21">
+        <v>0.182684270325973</v>
+      </c>
+      <c r="E21">
+        <v>48.37678727145072</v>
+      </c>
+      <c r="F21">
+        <v>353.0242028458494</v>
+      </c>
+      <c r="G21">
+        <v>401.4009901173001</v>
+      </c>
+      <c r="H21">
+        <v>48.78880422371702</v>
+      </c>
+      <c r="I21">
+        <v>397.1643886287384</v>
+      </c>
+      <c r="J21">
+        <v>445.9531928524555</v>
+      </c>
+      <c r="K21">
+        <v>0.2033100492610047</v>
+      </c>
+      <c r="L21">
+        <v>1.571087030177459</v>
+      </c>
+      <c r="M21">
+        <v>1.774397079438464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>256.469387755102</v>
+      </c>
+      <c r="B22">
+        <v>2.783138305016077</v>
+      </c>
+      <c r="C22">
+        <v>0.001705162672560056</v>
+      </c>
+      <c r="D22">
+        <v>0.1612177882613856</v>
+      </c>
+      <c r="E22">
+        <v>57.55024461938189</v>
+      </c>
+      <c r="F22">
+        <v>348.0903331774082</v>
+      </c>
+      <c r="G22">
+        <v>405.6405777967901</v>
+      </c>
+      <c r="H22">
+        <v>58.02481497441045</v>
+      </c>
+      <c r="I22">
+        <v>392.484903018403</v>
+      </c>
+      <c r="J22">
+        <v>450.5097179928134</v>
+      </c>
+      <c r="K22">
+        <v>0.2395449326398129</v>
+      </c>
+      <c r="L22">
+        <v>1.530338207042392</v>
+      </c>
+      <c r="M22">
+        <v>1.769883139682205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>260.1428571428571</v>
+      </c>
+      <c r="B23">
+        <v>3.163558130897456</v>
+      </c>
+      <c r="C23">
+        <v>0.001721596395451972</v>
+      </c>
+      <c r="D23">
+        <v>0.1427321183768347</v>
+      </c>
+      <c r="E23">
+        <v>66.77161776327205</v>
+      </c>
+      <c r="F23">
+        <v>343.100237753542</v>
+      </c>
+      <c r="G23">
+        <v>409.8718555168141</v>
+      </c>
+      <c r="H23">
+        <v>67.31625479076763</v>
+      </c>
+      <c r="I23">
+        <v>387.7097360891718</v>
+      </c>
+      <c r="J23">
+        <v>455.0259908799395</v>
+      </c>
+      <c r="K23">
+        <v>0.275355841818012</v>
+      </c>
+      <c r="L23">
+        <v>1.490372406712907</v>
+      </c>
+      <c r="M23">
+        <v>1.765728248530919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>263.8163265306122</v>
+      </c>
+      <c r="B24">
+        <v>3.582348517762657</v>
+      </c>
+      <c r="C24">
+        <v>0.001738811395275403</v>
+      </c>
+      <c r="D24">
+        <v>0.1267482773066194</v>
+      </c>
+      <c r="E24">
+        <v>76.0399208875819</v>
+      </c>
+      <c r="F24">
+        <v>338.0508684659883</v>
+      </c>
+      <c r="G24">
+        <v>414.0907893535702</v>
+      </c>
+      <c r="H24">
+        <v>76.66282373003526</v>
+      </c>
+      <c r="I24">
+        <v>382.8336159573688</v>
+      </c>
+      <c r="J24">
+        <v>459.4964396874041</v>
+      </c>
+      <c r="K24">
+        <v>0.3107592868726121</v>
+      </c>
+      <c r="L24">
+        <v>1.451136936792069</v>
+      </c>
+      <c r="M24">
+        <v>1.761896223664681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>267.4897959183673</v>
+      </c>
+      <c r="B25">
+        <v>4.041876810800158</v>
+      </c>
+      <c r="C25">
+        <v>0.001756866885655387</v>
+      </c>
+      <c r="D25">
+        <v>0.1128736164103131</v>
+      </c>
+      <c r="E25">
+        <v>85.35434713659265</v>
+      </c>
+      <c r="F25">
+        <v>332.9387637445408</v>
+      </c>
+      <c r="G25">
+        <v>418.2931108811334</v>
+      </c>
+      <c r="H25">
+        <v>86.06445108907195</v>
+      </c>
+      <c r="I25">
+        <v>377.8507850640611</v>
+      </c>
+      <c r="J25">
+        <v>463.9152361531331</v>
+      </c>
+      <c r="K25">
+        <v>0.345771459370698</v>
+      </c>
+      <c r="L25">
+        <v>1.412580183729228</v>
+      </c>
+      <c r="M25">
+        <v>1.758351643099926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>271.1632653061225</v>
+      </c>
+      <c r="B26">
+        <v>4.544536655730091</v>
+      </c>
+      <c r="C26">
+        <v>0.001775828546961344</v>
+      </c>
+      <c r="D26">
+        <v>0.1007846955268095</v>
+      </c>
+      <c r="E26">
+        <v>94.7142941909849</v>
+      </c>
+      <c r="F26">
+        <v>327.7599936199402</v>
+      </c>
+      <c r="G26">
+        <v>422.4742878109251</v>
+      </c>
+      <c r="H26">
+        <v>95.52132598358065</v>
+      </c>
+      <c r="I26">
+        <v>372.7549361431627</v>
+      </c>
+      <c r="J26">
+        <v>468.2762621267433</v>
+      </c>
+      <c r="K26">
+        <v>0.380408339258494</v>
+      </c>
+      <c r="L26">
+        <v>1.374651303606154</v>
+      </c>
+      <c r="M26">
+        <v>1.755059642864648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>274.8367346938776</v>
+      </c>
+      <c r="B27">
+        <v>5.092741859443417</v>
+      </c>
+      <c r="C27">
+        <v>0.001795769478590894</v>
+      </c>
+      <c r="D27">
+        <v>0.09021384067749659</v>
+      </c>
+      <c r="E27">
+        <v>104.1193931644729</v>
+      </c>
+      <c r="F27">
+        <v>322.5100957796082</v>
+      </c>
+      <c r="G27">
+        <v>426.6294889440811</v>
+      </c>
+      <c r="H27">
+        <v>105.0339322038259</v>
+      </c>
+      <c r="I27">
+        <v>367.5391370121998</v>
+      </c>
+      <c r="J27">
+        <v>472.5730692160257</v>
+      </c>
+      <c r="K27">
+        <v>0.4146858069107646</v>
+      </c>
+      <c r="L27">
+        <v>1.337299897051889</v>
+      </c>
+      <c r="M27">
+        <v>1.751985703962653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>278.5102040816327</v>
+      </c>
+      <c r="B28">
+        <v>5.688920329376452</v>
+      </c>
+      <c r="C28">
+        <v>0.001816771332064495</v>
+      </c>
+      <c r="D28">
+        <v>0.08093853531389697</v>
+      </c>
+      <c r="E28">
+        <v>113.5695417545596</v>
+      </c>
+      <c r="F28">
+        <v>317.1840005583507</v>
+      </c>
+      <c r="G28">
+        <v>430.7535423129103</v>
+      </c>
+      <c r="H28">
+        <v>114.6030884910406</v>
+      </c>
+      <c r="I28">
+        <v>362.1957417195879</v>
+      </c>
+      <c r="J28">
+        <v>476.7988302106286</v>
+      </c>
+      <c r="K28">
+        <v>0.4486197632970945</v>
+      </c>
+      <c r="L28">
+        <v>1.300475660896886</v>
+      </c>
+      <c r="M28">
+        <v>1.749095424193981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>282.1836734693878</v>
+      </c>
+      <c r="B29">
+        <v>6.335508124404877</v>
+      </c>
+      <c r="C29">
+        <v>0.001838925667627377</v>
+      </c>
+      <c r="D29">
+        <v>0.07277300354041934</v>
+      </c>
+      <c r="E29">
+        <v>123.0649428366211</v>
+      </c>
+      <c r="F29">
+        <v>311.7759422491788</v>
+      </c>
+      <c r="G29">
+        <v>434.8408850857999</v>
+      </c>
+      <c r="H29">
+        <v>124.2299956873641</v>
+      </c>
+      <c r="I29">
+        <v>356.7162849152029</v>
+      </c>
+      <c r="J29">
+        <v>480.946280602567</v>
+      </c>
+      <c r="K29">
+        <v>0.4822262618498503</v>
+      </c>
+      <c r="L29">
+        <v>1.264128007582624</v>
+      </c>
+      <c r="M29">
+        <v>1.746354269432474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>285.8571428571429</v>
+      </c>
+      <c r="B30">
+        <v>7.034943646417967</v>
+      </c>
+      <c r="C30">
+        <v>0.001862335589305794</v>
+      </c>
+      <c r="D30">
+        <v>0.0655614983665163</v>
+      </c>
+      <c r="E30">
+        <v>132.6061500296537</v>
+      </c>
+      <c r="F30">
+        <v>306.2793533812377</v>
+      </c>
+      <c r="G30">
+        <v>438.8855034108914</v>
+      </c>
+      <c r="H30">
+        <v>133.9162926218022</v>
+      </c>
+      <c r="I30">
+        <v>351.0913554274058</v>
+      </c>
+      <c r="J30">
+        <v>485.007648049208</v>
+      </c>
+      <c r="K30">
+        <v>0.5155216564804015</v>
+      </c>
+      <c r="L30">
+        <v>1.228205641175333</v>
+      </c>
+      <c r="M30">
+        <v>1.743727297655734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>289.530612244898</v>
+      </c>
+      <c r="B31">
+        <v>7.789661998188993</v>
+      </c>
+      <c r="C31">
+        <v>0.001887117729811448</v>
+      </c>
+      <c r="D31">
+        <v>0.0591729232425285</v>
+      </c>
+      <c r="E31">
+        <v>142.1941222184821</v>
+      </c>
+      <c r="F31">
+        <v>300.6867376226626</v>
+      </c>
+      <c r="G31">
+        <v>442.8808598411447</v>
+      </c>
+      <c r="H31">
+        <v>143.6641231450842</v>
+      </c>
+      <c r="I31">
+        <v>345.3104438464684</v>
+      </c>
+      <c r="J31">
+        <v>488.9745669915526</v>
+      </c>
+      <c r="K31">
+        <v>0.5485227713749226</v>
+      </c>
+      <c r="L31">
+        <v>1.192656075877702</v>
+      </c>
+      <c r="M31">
+        <v>1.741178847252624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>293.2040816326531</v>
+      </c>
+      <c r="B32">
+        <v>8.602089529725641</v>
+      </c>
+      <c r="C32">
+        <v>0.001913404679025473</v>
+      </c>
+      <c r="D32">
+        <v>0.05349650147569732</v>
+      </c>
+      <c r="E32">
+        <v>151.830289639509</v>
+      </c>
+      <c r="F32">
+        <v>294.9895156247098</v>
+      </c>
+      <c r="G32">
+        <v>446.8198052642189</v>
+      </c>
+      <c r="H32">
+        <v>153.4762174750663</v>
+      </c>
+      <c r="I32">
+        <v>339.3617573112573</v>
+      </c>
+      <c r="J32">
+        <v>492.8379747863237</v>
+      </c>
+      <c r="K32">
+        <v>0.58124709983928</v>
+      </c>
+      <c r="L32">
+        <v>1.157425078878792</v>
+      </c>
+      <c r="M32">
+        <v>1.738672178718072</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>296.8775510204082</v>
+      </c>
+      <c r="B33">
+        <v>9.474638591997365</v>
+      </c>
+      <c r="C33">
+        <v>0.001941347980511584</v>
+      </c>
+      <c r="D33">
+        <v>0.04843827320640567</v>
+      </c>
+      <c r="E33">
+        <v>161.5166349967104</v>
+      </c>
+      <c r="F33">
+        <v>289.1778362808457</v>
+      </c>
+      <c r="G33">
+        <v>450.6944712775561</v>
+      </c>
+      <c r="H33">
+        <v>163.3559920463755</v>
+      </c>
+      <c r="I33">
+        <v>333.2319924962929</v>
+      </c>
+      <c r="J33">
+        <v>496.5879845426684</v>
+      </c>
+      <c r="K33">
+        <v>0.6137130417469467</v>
+      </c>
+      <c r="L33">
+        <v>1.122456013770423</v>
+      </c>
+      <c r="M33">
+        <v>1.73616905551737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>300.5510204081633</v>
+      </c>
+      <c r="B34">
+        <v>10.4097025138187</v>
+      </c>
+      <c r="C34">
+        <v>0.001971121863330397</v>
+      </c>
+      <c r="D34">
+        <v>0.04391824894972429</v>
+      </c>
+      <c r="E34">
+        <v>171.2557942789199</v>
+      </c>
+      <c r="F34">
+        <v>283.240343307861</v>
+      </c>
+      <c r="G34">
+        <v>454.4961375867809</v>
+      </c>
+      <c r="H34">
+        <v>173.3076735004952</v>
+      </c>
+      <c r="I34">
+        <v>326.9060547357317</v>
+      </c>
+      <c r="J34">
+        <v>500.2137282362269</v>
+      </c>
+      <c r="K34">
+        <v>0.6459401923645025</v>
+      </c>
+      <c r="L34">
+        <v>1.087689052899494</v>
+      </c>
+      <c r="M34">
+        <v>1.733629245263997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>304.2244897959184</v>
+      </c>
+      <c r="B35">
+        <v>11.40965081473074</v>
+      </c>
+      <c r="C35">
+        <v>0.002002927937013408</v>
+      </c>
+      <c r="D35">
+        <v>0.03986808627769203</v>
+      </c>
+      <c r="E35">
+        <v>181.0511836623964</v>
+      </c>
+      <c r="F35">
+        <v>277.1638834265627</v>
+      </c>
+      <c r="G35">
+        <v>458.2150670889591</v>
+      </c>
+      <c r="H35">
+        <v>183.3364544992356</v>
+      </c>
+      <c r="I35">
+        <v>320.366706897726</v>
+      </c>
+      <c r="J35">
+        <v>503.7031613969616</v>
+      </c>
+      <c r="K35">
+        <v>0.6779496999290118</v>
+      </c>
+      <c r="L35">
+        <v>1.053060215870971</v>
+      </c>
+      <c r="M35">
+        <v>1.731009915799983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>307.8979591836735</v>
+      </c>
+      <c r="B36">
+        <v>12.47682466398339</v>
+      </c>
+      <c r="C36">
+        <v>0.00203700116468057</v>
+      </c>
+      <c r="D36">
+        <v>0.03622918496296326</v>
+      </c>
+      <c r="E36">
+        <v>190.9071613595826</v>
+      </c>
+      <c r="F36">
+        <v>270.9331372009554</v>
+      </c>
+      <c r="G36">
+        <v>461.840298560538</v>
+      </c>
+      <c r="H36">
+        <v>193.4486919967876</v>
+      </c>
+      <c r="I36">
+        <v>313.594125413942</v>
+      </c>
+      <c r="J36">
+        <v>507.0428174107296</v>
+      </c>
+      <c r="K36">
+        <v>0.7097647160208733</v>
+      </c>
+      <c r="L36">
+        <v>1.018500175335266</v>
+      </c>
+      <c r="M36">
+        <v>1.728264891356139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>311.5714285714286</v>
+      </c>
+      <c r="B37">
+        <v>13.61353259318402</v>
+      </c>
+      <c r="C37">
+        <v>0.002073617556836644</v>
+      </c>
+      <c r="D37">
+        <v>0.03295111797589637</v>
+      </c>
+      <c r="E37">
+        <v>200.8292369219392</v>
+      </c>
+      <c r="F37">
+        <v>264.5301459527002</v>
+      </c>
+      <c r="G37">
+        <v>465.3593828746394</v>
+      </c>
+      <c r="H37">
+        <v>203.6521629415187</v>
+      </c>
+      <c r="I37">
+        <v>306.5653317877924</v>
+      </c>
+      <c r="J37">
+        <v>510.2174947293112</v>
+      </c>
+      <c r="K37">
+        <v>0.7414109726128967</v>
+      </c>
+      <c r="L37">
+        <v>0.9839327475995173</v>
+      </c>
+      <c r="M37">
+        <v>1.725343720212414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>315.2448979591837</v>
+      </c>
+      <c r="B38">
+        <v>14.82204646784461</v>
+      </c>
+      <c r="C38">
+        <v>0.002113104218851663</v>
+      </c>
+      <c r="D38">
+        <v>0.02999033270576783</v>
+      </c>
+      <c r="E38">
+        <v>210.8243459829588</v>
+      </c>
+      <c r="F38">
+        <v>257.9336967472925</v>
+      </c>
+      <c r="G38">
+        <v>468.7580427302513</v>
+      </c>
+      <c r="H38">
+        <v>213.9563988752806</v>
+      </c>
+      <c r="I38">
+        <v>299.2534543500718</v>
+      </c>
+      <c r="J38">
+        <v>513.2098532253524</v>
+      </c>
+      <c r="K38">
+        <v>0.7729175344696201</v>
+      </c>
+      <c r="L38">
+        <v>0.9492729502915466</v>
+      </c>
+      <c r="M38">
+        <v>1.722190484761167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>318.9183673469388</v>
+      </c>
+      <c r="B39">
+        <v>16.10459772092968</v>
+      </c>
+      <c r="C39">
+        <v>0.00215585267589788</v>
+      </c>
+      <c r="D39">
+        <v>0.02730906981684861</v>
+      </c>
+      <c r="E39">
+        <v>220.9012168414938</v>
+      </c>
+      <c r="F39">
+        <v>251.1185099917854</v>
+      </c>
+      <c r="G39">
+        <v>472.0197268332793</v>
+      </c>
+      <c r="H39">
+        <v>224.3731308505863</v>
+      </c>
+      <c r="I39">
+        <v>291.6267543360059</v>
+      </c>
+      <c r="J39">
+        <v>515.9998851865922</v>
+      </c>
+      <c r="K39">
+        <v>0.804317798306955</v>
+      </c>
+      <c r="L39">
+        <v>0.9144244552674402</v>
+      </c>
+      <c r="M39">
+        <v>1.718742253574395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>322.5918367346939</v>
+      </c>
+      <c r="B40">
+        <v>17.46337384958228</v>
+      </c>
+      <c r="C40">
+        <v>0.00220233685409155</v>
+      </c>
+      <c r="D40">
+        <v>0.02487445707373332</v>
+      </c>
+      <c r="E40">
+        <v>231.0708685342676</v>
+      </c>
+      <c r="F40">
+        <v>244.0541468153819</v>
+      </c>
+      <c r="G40">
+        <v>475.1250153496495</v>
+      </c>
+      <c r="H40">
+        <v>234.916891716839</v>
+      </c>
+      <c r="I40">
+        <v>283.6473179512096</v>
+      </c>
+      <c r="J40">
+        <v>518.5642096680486</v>
+      </c>
+      <c r="K40">
+        <v>0.8356508459333915</v>
+      </c>
+      <c r="L40">
+        <v>0.8792761801486223</v>
+      </c>
+      <c r="M40">
+        <v>1.714927026082014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>326.265306122449</v>
+      </c>
+      <c r="B41">
+        <v>18.90051517447176</v>
+      </c>
+      <c r="C41">
+        <v>0.002253137828628163</v>
+      </c>
+      <c r="D41">
+        <v>0.02265774281831064</v>
+      </c>
+      <c r="E41">
+        <v>241.3473015010994</v>
+      </c>
+      <c r="F41">
+        <v>236.7035092486321</v>
+      </c>
+      <c r="G41">
+        <v>478.0508107497315</v>
+      </c>
+      <c r="H41">
+        <v>245.6058480731157</v>
+      </c>
+      <c r="I41">
+        <v>275.2692638722917</v>
+      </c>
+      <c r="J41">
+        <v>520.8751119454074</v>
+      </c>
+      <c r="K41">
+        <v>0.8669633165857882</v>
+      </c>
+      <c r="L41">
+        <v>0.8436976249291483</v>
+      </c>
+      <c r="M41">
+        <v>1.710660941514937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>329.9387755102041</v>
+      </c>
+      <c r="B42">
+        <v>20.41811185966323</v>
+      </c>
+      <c r="C42">
+        <v>0.002308978665465869</v>
+      </c>
+      <c r="D42">
+        <v>0.02063363881236004</v>
+      </c>
+      <c r="E42">
+        <v>251.7484778132773</v>
+      </c>
+      <c r="F42">
+        <v>229.0207326128968</v>
+      </c>
+      <c r="G42">
+        <v>480.7692104261741</v>
+      </c>
+      <c r="H42">
+        <v>256.4629762805831</v>
+      </c>
+      <c r="I42">
+        <v>266.4362286798566</v>
+      </c>
+      <c r="J42">
+        <v>522.8992049604398</v>
+      </c>
+      <c r="K42">
+        <v>0.8983120605913727</v>
+      </c>
+      <c r="L42">
+        <v>0.8075323316207691</v>
+      </c>
+      <c r="M42">
+        <v>1.705844392212142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>333.6122448979592</v>
+      </c>
+      <c r="B43">
+        <v>22.01820118954797</v>
+      </c>
+      <c r="C43">
+        <v>0.002370774777130204</v>
+      </c>
+      <c r="D43">
+        <v>0.01877974477183622</v>
+      </c>
+      <c r="E43">
+        <v>262.2977501226193</v>
+      </c>
+      <c r="F43">
+        <v>220.9481421399349</v>
+      </c>
+      <c r="G43">
+        <v>483.2458922625543</v>
+      </c>
+      <c r="H43">
+        <v>267.5177697244152</v>
+      </c>
+      <c r="I43">
+        <v>257.0777424056042</v>
+      </c>
+      <c r="J43">
+        <v>524.5955121300194</v>
+      </c>
+      <c r="K43">
+        <v>0.9297680044198574</v>
+      </c>
+      <c r="L43">
+        <v>0.7705884491267271</v>
+      </c>
+      <c r="M43">
+        <v>1.700356453546584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>337.2857142857143</v>
+      </c>
+      <c r="B44">
+        <v>23.70276509817953</v>
+      </c>
+      <c r="C44">
+        <v>0.002439708975749058</v>
+      </c>
+      <c r="D44">
+        <v>0.01707602639726479</v>
+      </c>
+      <c r="E44">
+        <v>273.0260109556085</v>
+      </c>
+      <c r="F44">
+        <v>212.4117154920406</v>
+      </c>
+      <c r="G44">
+        <v>485.437726447649</v>
+      </c>
+      <c r="H44">
+        <v>278.8087958316185</v>
+      </c>
+      <c r="I44">
+        <v>247.1038348664986</v>
+      </c>
+      <c r="J44">
+        <v>525.912630698117</v>
+      </c>
+      <c r="K44">
+        <v>0.9614219605738765</v>
+      </c>
+      <c r="L44">
+        <v>0.732624669235701</v>
+      </c>
+      <c r="M44">
+        <v>1.694046629809578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>340.9591836734694</v>
+      </c>
+      <c r="B45">
+        <v>25.47372794532802</v>
+      </c>
+      <c r="C45">
+        <v>0.002517347512064291</v>
+      </c>
+      <c r="D45">
+        <v>0.01550431306634855</v>
+      </c>
+      <c r="E45">
+        <v>283.9750476669132</v>
+      </c>
+      <c r="F45">
+        <v>203.314054251694</v>
+      </c>
+      <c r="G45">
+        <v>487.2891019186072</v>
+      </c>
+      <c r="H45">
+        <v>290.3876702335306</v>
+      </c>
+      <c r="I45">
+        <v>236.3966969882123</v>
+      </c>
+      <c r="J45">
+        <v>526.784367221743</v>
+      </c>
+      <c r="K45">
+        <v>0.9933936912543468</v>
+      </c>
+      <c r="L45">
+        <v>0.6933284343342554</v>
+      </c>
+      <c r="M45">
+        <v>1.686722125588602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>344.6326530612245</v>
+      </c>
+      <c r="B46">
+        <v>27.33295453268586</v>
+      </c>
+      <c r="C46">
+        <v>0.002605827631751661</v>
+      </c>
+      <c r="D46">
+        <v>0.01404776556732387</v>
+      </c>
+      <c r="E46">
+        <v>295.2030188548977</v>
+      </c>
+      <c r="F46">
+        <v>193.5229788849588</v>
+      </c>
+      <c r="G46">
+        <v>488.7259977398564</v>
+      </c>
+      <c r="H46">
+        <v>302.3255156727661</v>
+      </c>
+      <c r="I46">
+        <v>224.7971758208396</v>
+      </c>
+      <c r="J46">
+        <v>527.1226914936058</v>
+      </c>
+      <c r="K46">
+        <v>1.025846691209942</v>
+      </c>
+      <c r="L46">
+        <v>0.6522805480678121</v>
+      </c>
+      <c r="M46">
+        <v>1.678127239277754</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>348.3061224489796</v>
+      </c>
+      <c r="B47">
+        <v>29.2822483529143</v>
+      </c>
+      <c r="C47">
+        <v>0.002708177880103641</v>
+      </c>
+      <c r="D47">
+        <v>0.01269022499565406</v>
+      </c>
+      <c r="E47">
+        <v>306.7938985764898</v>
+      </c>
+      <c r="F47">
+        <v>182.8519193208019</v>
+      </c>
+      <c r="G47">
+        <v>489.6458178972917</v>
+      </c>
+      <c r="H47">
+        <v>314.7240523033962</v>
+      </c>
+      <c r="I47">
+        <v>212.0815975916059</v>
+      </c>
+      <c r="J47">
+        <v>526.805649895002</v>
+      </c>
+      <c r="K47">
+        <v>1.059013645559885</v>
+      </c>
+      <c r="L47">
+        <v>0.6088942568693201</v>
+      </c>
+      <c r="M47">
+        <v>1.667907902429205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>351.9795918367347</v>
+      </c>
+      <c r="B48">
+        <v>31.32335006360351</v>
+      </c>
+      <c r="C48">
+        <v>0.002828904860945231</v>
+      </c>
+      <c r="D48">
+        <v>0.01141525221628708</v>
+      </c>
+      <c r="E48">
+        <v>318.8749270509928</v>
+      </c>
+      <c r="F48">
+        <v>171.0236006268228</v>
+      </c>
+      <c r="G48">
+        <v>489.8985276778157</v>
+      </c>
+      <c r="H48">
+        <v>327.7360047765945</v>
+      </c>
+      <c r="I48">
+        <v>197.9189170247297</v>
+      </c>
+      <c r="J48">
+        <v>525.6549218013242</v>
+      </c>
+      <c r="K48">
+        <v>1.093243350766264</v>
+      </c>
+      <c r="L48">
+        <v>0.5623022516502438</v>
+      </c>
+      <c r="M48">
+        <v>1.655545602416507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>355.6530612244898</v>
+      </c>
+      <c r="B49">
+        <v>33.45793617772951</v>
+      </c>
+      <c r="C49">
+        <v>0.002975172645875002</v>
+      </c>
+      <c r="D49">
+        <v>0.01020437025264193</v>
+      </c>
+      <c r="E49">
+        <v>331.6518522264743</v>
+      </c>
+      <c r="F49">
+        <v>157.59578434865</v>
+      </c>
+      <c r="G49">
+        <v>489.2476365751243</v>
+      </c>
+      <c r="H49">
+        <v>341.6061658768156</v>
+      </c>
+      <c r="I49">
+        <v>181.7831875629903</v>
+      </c>
+      <c r="J49">
+        <v>523.3893534398059</v>
+      </c>
+      <c r="K49">
+        <v>1.129095016295011</v>
+      </c>
+      <c r="L49">
+        <v>0.5111250468001679</v>
+      </c>
+      <c r="M49">
+        <v>1.640220063095178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>359.3265306122449</v>
+      </c>
+      <c r="B50">
+        <v>35.68761796179827</v>
+      </c>
+      <c r="C50">
+        <v>0.003159501065259907</v>
+      </c>
+      <c r="D50">
+        <v>0.00903296400161308</v>
+      </c>
+      <c r="E50">
+        <v>345.4888747850305</v>
+      </c>
+      <c r="F50">
+        <v>141.7865703586099</v>
+      </c>
+      <c r="G50">
+        <v>487.2754451436404</v>
+      </c>
+      <c r="H50">
+        <v>356.7643814817195</v>
+      </c>
+      <c r="I50">
+        <v>162.7475604971453</v>
+      </c>
+      <c r="J50">
+        <v>519.5119419788648</v>
+      </c>
+      <c r="K50">
+        <v>1.167550038501409</v>
+      </c>
+      <c r="L50">
+        <v>0.4529238634838484</v>
+      </c>
+      <c r="M50">
+        <v>1.620473901985257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
         <v>363</v>
       </c>
-      <c r="B9">
+      <c r="B51">
         <v>38.01394053257658</v>
       </c>
-      <c r="C9">
+      <c r="C51">
         <v>0.00340727389812239</v>
       </c>
-      <c r="D9">
+      <c r="D51">
         <v>0.007857005062002809</v>
       </c>
-      <c r="E9">
+      <c r="E51">
         <v>361.1170073736077</v>
       </c>
-      <c r="F9">
+      <c r="F51">
         <v>121.9639934256125</v>
       </c>
-      <c r="G9">
+      <c r="G51">
         <v>483.0810007992203</v>
       </c>
-      <c r="H9">
+      <c r="H51">
         <v>374.0693981077503</v>
       </c>
-      <c r="I9">
+      <c r="I51">
         <v>138.8791750105828</v>
       </c>
-      <c r="J9">
+      <c r="J51">
         <v>512.9485731183331</v>
       </c>
-      <c r="K9">
+      <c r="K51">
         <v>1.21054866605586</v>
       </c>
-      <c r="L9">
+      <c r="L51">
         <v>0.3825872589823218</v>
       </c>
-      <c r="M9">
+      <c r="M51">
         <v>1.593135925038182</v>
       </c>
     </row>
